--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>009164</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>009165</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>80.32</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.13</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>860001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>光大阳光混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +900,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004696</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东兴量化优享灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>004696</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>东兴量化优享灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>860001</t>
+          <t>860036</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>光大阳光混合A</t>
+          <t>光大阳光混合B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>860036</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大阳光混合B</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>860037</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大阳光混合C</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1238,26 +1508,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>860037</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1516,7 +1517,6 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>94.76</t>
@@ -1532,6 +1532,286 @@
       </c>
       <c r="H19" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1817,4 +1818,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2214,4 +2215,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2223,7 +2224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2234,17 +2235,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2254,14 +2275,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.96</v>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2270,14 +2313,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2286,14 +2351,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.34</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2302,13 +2389,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2848,7 +2849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,17 +2860,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2879,14 +2900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2895,14 +2938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2911,14 +2976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2927,14 +3014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.34</v>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2943,13 +3052,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3437,7 +3438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3448,17 +3449,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3468,14 +3489,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.39</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3484,14 +3527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.26</v>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3500,14 +3565,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.96</v>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3516,14 +3603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3532,14 +3641,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.34</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3548,13 +3679,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.25</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.34</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2757,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3037,7 +3490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3770,7 +4223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
+++ b/数据整理/stocks/A股/上证主板/603043-广州酒家.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.25</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.34</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1602,7 +2451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3210,7 +4059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3490,7 +4339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4221,364 +5070,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>